--- a/medicine/Enfance/Da_Silva/Da_Silva.xlsx
+++ b/medicine/Enfance/Da_Silva/Da_Silva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Da Silva, pseudonyme d'Emmanuel da Silva, né le 15 avril 1976 à Nevers, est un auteur-compositeur-interprète français.
 </t>
@@ -513,29 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les débuts à Nevers
-D'origine portugaise, Emmanuel da Silva fait partie à douze ans d'un groupe de punk rock nivernais, les Mad Coakroches. À quinze ans, il se met à l'écriture de chansons en anglais ou en espagnol et monte divers groupes. Il se tourne vers un son plus brut en formant, en compagnie d'anciens membres des Tambours du Bronx, le groupe Punishment Park, révélation du Printemps de Bourges en 1993[1].
-Début d'une carrière nationale
-Da Silva est sélectionné aux Découvertes du Printemps de Bourges avec son groupe de rock indus, Punishment Park. Il tourne également avec le groupe électro Mitsu et joue aux Rencontres trans musicales en 2000 après avoir été repéré par Jean-Louis Brossard[2]. Il souhaite ensuite quitter le milieu électro et affirme en avoir assez « du synthétique, des samples » mais confirme son « envie de jouer »[2]. En 2001, il sort son album Vue de dessus[3].
-Le label Tôt ou tard[4] lui offre en 2004 un premier contrat et sur lequel il publie trois albums : Décembre en été, De beaux jours à venir et La Tendresse des fous.
-Décembre en été est le premier album solo de Da Silva, paru en septembre 2005[5]. Enregistré avec le concours de quelques auteurs comme Albin de la Simone. Avec 110 000 exemplaires écoulés, il fut l'un des albums révélation de l'année 2005, atteignant la 35e place et restant 61 semaines dans le top albums français[6] et finit disque d'or[7].
-Da Silva sort en 2007 son disque De Beaux Jours À Venir[8]. Il atteint la 23e position et se maintient 74 semaines dans le top albums France[9]. La même année il est nommé aux Victoires de la musique en tant qu’artiste révélation scène[10].
-En septembre 2009, il sort son troisième album solo La Tendresse des Fous paru chez label Tôt ou Tard[11]. L'album sera adapté en anglais par Constance Amiot sous le titre Once Twice[12],[13]. Da Silva enchaîne plus de cent dates de concert sur une année après la sortie de ce dernier album[2].
-Collaborations avec d'autres artistes
-Da Silva collabore avec divers artistes[14],[15], écrit et compose notamment pour Claire Denamur[16], Hélène Ségara[17], Jenifer[18], Julie Zenatti[19] et réalise les albums d'Elsa Lunghini[20].
-Le chanteur se lie d’amitié avec Richard Dumas[21], qui réalise les pochettes de ses quatre premiers albums. Quant à Emmanuel Da Silva, il signe de son côté les photos du livret de l'album Les Fleurs Sauvages de Charlie, qu’il a réalisé début 2014[22].
-Nouveaux albums et biographie
-En 2011, Da Silva rejoint PIAS Group[23] chez qui il sort ses trois albums suivants : La Distance[24] en 2011, Villa Rosa[25] en 2013 puis L'Aventure[26] en 2017 enregistrés aux studios ICP à Bruxelles. Quatre ans après son sixième album, L'Aventure sort chez PIAS Group. En 2019, le chanteur sort une biographie parue aux Éditions Braquage [27],[14],[28].
-En 2019, Da Silva rejoint le label At(h)ome. L'album Au revoir chagrin sort en octobre 2019[29]. Trois ans plus tard, en septembre 2022 parait l'album Extrait d'une vie imparfaite[30] que l'artiste évoque en interview sur France Bleu[31].
-Action culturelle
-En 2012, Da Silva participe à la tournée de l'alimentation générale culturelle du théâtre éprouvette mené par Jean Bojko[32],[33],[34]. En deux jours, il donne seize concerts dans le Morvan au cœur de zones rurales éloignées des circuits culturels habituels[35]. Il réitère cette expérience en 2018, enchaînant une série de concerts solo en Suisse. Il se produit dans des commerces, notamment un salon de coiffure ou encore une pizzeria[36].
-Livres pour enfants
-Parallèlement à son projet personnel, Da Silva écrit plusieurs livres CD pour enfants publiés chez Actes Sud : Le Peuple des Dunes, Le Mystère des Couleurs[37], Billie et les rois de la nuit[38], Les Dinosaures du rock[39], Les Fleurs imaginaires[40],[41]. Des projets parallèles auxquels il convie d'autres artistes : Coralie Clément, Cali, Marie Drucker ou encore Françoiz Breut[42]. Son ouvrage Le Petit Nuage obtient les récompenses : le prix Charles Cros du livre Jeune Public[43] et le Prix du public du Livre audio La Plume de Paon 2020[44].
-Projets collaboratifs
-Le 15 avril 2020, en pleine pandémie de Covid-19, Da Silva lance son site À Contre-Courant. Cette plate-forme participative permet le contact direct entre l'artiste et son public à travers des concerts en direct, des soirées de lecture, d'échanges, de vernissage d'expositions en ligne se succèdent [45],[46]. En 2021, Da Silva se lance dans la création participative et l'art brut en hôpital psychiatrique[47],[48],[49].
-En mars 2022, en résidence à Chartres-de-Bretagne pour un projet de territoire, Da Silva crée une œuvre musicale qui mélange œuvre artistique et paroles des habitants[50],[51]. La même année, le chanteur crée et présente un spectacle musical dans la galerie de la tenture de l'Apocalypse au château d’Angers[52],[53]. En juin 2022, dans le cadre du festival GR 5.0, Da Silva et la conteuse Delphine Garczynska s’associent pour un projet itinérant à dos d'âne dans le Sud-Manche[54],[55].
-Accusations de harcèlement moral
-En mai 2022, Libération publie une enquête qui rapporte le témoignage de plusieurs partenaires musicaux du chanteur qui dénoncent « un comportement destructeur », une forme de racket et un « entourage complice par le silence ». Emmanuel Da Silva dément ces accusations et conteste l'enquête du quotidien, jugeant « ces allégations très fortes et extrêmement violentes » [56],[57].
+          <t>Les débuts à Nevers</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine portugaise, Emmanuel da Silva fait partie à douze ans d'un groupe de punk rock nivernais, les Mad Coakroches. À quinze ans, il se met à l'écriture de chansons en anglais ou en espagnol et monte divers groupes. Il se tourne vers un son plus brut en formant, en compagnie d'anciens membres des Tambours du Bronx, le groupe Punishment Park, révélation du Printemps de Bourges en 1993.
 </t>
         </is>
       </c>
@@ -561,12 +557,284 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Début d'une carrière nationale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Da Silva est sélectionné aux Découvertes du Printemps de Bourges avec son groupe de rock indus, Punishment Park. Il tourne également avec le groupe électro Mitsu et joue aux Rencontres trans musicales en 2000 après avoir été repéré par Jean-Louis Brossard. Il souhaite ensuite quitter le milieu électro et affirme en avoir assez « du synthétique, des samples » mais confirme son « envie de jouer ». En 2001, il sort son album Vue de dessus.
+Le label Tôt ou tard lui offre en 2004 un premier contrat et sur lequel il publie trois albums : Décembre en été, De beaux jours à venir et La Tendresse des fous.
+Décembre en été est le premier album solo de Da Silva, paru en septembre 2005. Enregistré avec le concours de quelques auteurs comme Albin de la Simone. Avec 110 000 exemplaires écoulés, il fut l'un des albums révélation de l'année 2005, atteignant la 35e place et restant 61 semaines dans le top albums français et finit disque d'or.
+Da Silva sort en 2007 son disque De Beaux Jours À Venir. Il atteint la 23e position et se maintient 74 semaines dans le top albums France. La même année il est nommé aux Victoires de la musique en tant qu’artiste révélation scène.
+En septembre 2009, il sort son troisième album solo La Tendresse des Fous paru chez label Tôt ou Tard. L'album sera adapté en anglais par Constance Amiot sous le titre Once Twice,. Da Silva enchaîne plus de cent dates de concert sur une année après la sortie de ce dernier album.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collaborations avec d'autres artistes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Da Silva collabore avec divers artistes écrit et compose notamment pour Claire Denamur, Hélène Ségara, Jenifer, Julie Zenatti et réalise les albums d'Elsa Lunghini.
+Le chanteur se lie d’amitié avec Richard Dumas, qui réalise les pochettes de ses quatre premiers albums. Quant à Emmanuel Da Silva, il signe de son côté les photos du livret de l'album Les Fleurs Sauvages de Charlie, qu’il a réalisé début 2014.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouveaux albums et biographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, Da Silva rejoint PIAS Group chez qui il sort ses trois albums suivants : La Distance en 2011, Villa Rosa en 2013 puis L'Aventure en 2017 enregistrés aux studios ICP à Bruxelles. Quatre ans après son sixième album, L'Aventure sort chez PIAS Group. En 2019, le chanteur sort une biographie parue aux Éditions Braquage .
+En 2019, Da Silva rejoint le label At(h)ome. L'album Au revoir chagrin sort en octobre 2019. Trois ans plus tard, en septembre 2022 parait l'album Extrait d'une vie imparfaite que l'artiste évoque en interview sur France Bleu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Action culturelle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, Da Silva participe à la tournée de l'alimentation générale culturelle du théâtre éprouvette mené par Jean Bojko. En deux jours, il donne seize concerts dans le Morvan au cœur de zones rurales éloignées des circuits culturels habituels. Il réitère cette expérience en 2018, enchaînant une série de concerts solo en Suisse. Il se produit dans des commerces, notamment un salon de coiffure ou encore une pizzeria.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement à son projet personnel, Da Silva écrit plusieurs livres CD pour enfants publiés chez Actes Sud : Le Peuple des Dunes, Le Mystère des Couleurs, Billie et les rois de la nuit, Les Dinosaures du rock, Les Fleurs imaginaires,. Des projets parallèles auxquels il convie d'autres artistes : Coralie Clément, Cali, Marie Drucker ou encore Françoiz Breut. Son ouvrage Le Petit Nuage obtient les récompenses : le prix Charles Cros du livre Jeune Public et le Prix du public du Livre audio La Plume de Paon 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Projets collaboratifs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 15 avril 2020, en pleine pandémie de Covid-19, Da Silva lance son site À Contre-Courant. Cette plate-forme participative permet le contact direct entre l'artiste et son public à travers des concerts en direct, des soirées de lecture, d'échanges, de vernissage d'expositions en ligne se succèdent ,. En 2021, Da Silva se lance dans la création participative et l'art brut en hôpital psychiatrique.
+En mars 2022, en résidence à Chartres-de-Bretagne pour un projet de territoire, Da Silva crée une œuvre musicale qui mélange œuvre artistique et paroles des habitants,. La même année, le chanteur crée et présente un spectacle musical dans la galerie de la tenture de l'Apocalypse au château d’Angers,. En juin 2022, dans le cadre du festival GR 5.0, Da Silva et la conteuse Delphine Garczynska s’associent pour un projet itinérant à dos d'âne dans le Sud-Manche,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Accusations de harcèlement moral</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2022, Libération publie une enquête qui rapporte le témoignage de plusieurs partenaires musicaux du chanteur qui dénoncent « un comportement destructeur », une forme de racket et un « entourage complice par le silence ». Emmanuel Da Silva dément ces accusations et conteste l'enquête du quotidien, jugeant « ces allégations très fortes et extrêmement violentes » ,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Punishment Park
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Punishment Park</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2009 : The Whole Complete (1994/1998), par Punishment Park (autoprod)
 It's Time To Punishment Park…
 Downstairs
@@ -587,8 +855,43 @@
 I Eternal - Live Nevers / Café Charbon
 Chojin - Live Nevers / Café Charbon
 12 G - Demo K7 / Guérigny
-Eternus 9 (inédit) - Live Bordeaux / Le Jimmy
-Venus Coma
+Eternus 9 (inédit) - Live Bordeaux / Le Jimmy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Venus Coma</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1998 : Venus Coma, par Venus Coma (autoprod)
 My Angels Falls
 Classical Fashion
@@ -602,8 +905,43 @@
 Las
 Êve
 Lunarm Charm
-Colder
-Mitsu
+Colder</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mitsu</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2001 : Vue Du Dessus, par Mitsu (Alice In Wonder)
 Chasser Les Papillons 	
 Lo 3D 	
@@ -614,8 +952,43 @@
 La Retenue
 Poussière
 Les Amants
-Pure
-Da Silva
+Pure</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Da Silva</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2005 : Décembre en été (Tôt ou tard)
 Les Fêtes foraines
 L'Indécision
@@ -738,41 +1111,43 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Da_Silva</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Collaborations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>2008 : Marina Vénache – Libellule – réalisation, écriture et composition des titres Tout me revient et Du baume au cœur
-2008 : Olive et Moi[58] – Le stylo à Cancre –  livre disque pour enfants, réalisation
+2008 : Olive et Moi – Le stylo à Cancre –  livre disque pour enfants, réalisation
 2009 : Elsa Lunghini – Oser – réalisation, écriture et composition de l'album sauf Pour te voir gagner, j'ai perdu et Ce qui n'existe pas, écrits et composés par Dominique A
-2009 : Olive et Moi[58] – Fais moi une passe – réalisation de l'album
+2009 : Olive et Moi – Fais moi une passe – réalisation de l'album
 2010 : Fabrice Mauss – Minuit passé – réalisation de l'album
 2010 : Radiosofa – Le Souffle Court – écriture du titre Le Souffle Court
 2011 : Dracula, l'amour plus fort que la mort (comédie musicale) – écriture du titre Dernière Danse
 2011 : Hélène Ségara – Parmi La Foule – écriture et composition des titres La Vie avec toi et Lame de fond, écriture des titres À la renverse, Le Monde à l'envers, Avant la fin, Si tu savais qui je suis, À la croisée des chemins, Parmi la foule et La balançoire
-2011 : Constance Amiot – Once, Twice[59] – composition
+2011 : Constance Amiot – Once, Twice – composition
 2011 : Claire Denamur – Vagabonde – écriture et composition des titres Bang, Bang, bang, Rien à me foutre en l'air et Le Ciel, écriture du titre 34 septembre
 2012 : Jenifer – L'Amour et moi – écriture et composition des titres Tu ne dis rien et Les Jours électriques
 2013 : Mélanie Pain – Bye, bye Manchester – écriture et composition du titre Fluo
@@ -789,67 +1164,71 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Da_Silva</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Duos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>2005 : Décembre en Été, avec Françoiz Breut
 2009 : Les tremblements de Terre, avec Elsa Lunghini
-2010 : Les Portes, avec Radiosofa[60]
+2010 : Les Portes, avec Radiosofa
 2011 : Rien à me foutre en l'air, avec Claire Denamur
-2012 : Exception singulière, avec Brisa Roché[61]
+2012 : Exception singulière, avec Brisa Roché
 2014 : Sans commentaire, avec Charlie
 2016 : Obrigado, avec Jenifer</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Da_Silva</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Clips</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">2005 : L'Indécision, réalisé par Bruno Sevaistre
 2005 : Les Fêtes Foraines, réalisé par Bruno Sevaistre
@@ -872,37 +1251,39 @@
 2018 : L'Indécision
 2019 : Loin, réalisé par Da Silva
 2019 : Le garçon, réalisé et monté par Stéphanie Daccache et Emmanuel Da Silva
-Da Silva apparaît également dans le clip, Les Jours Électriques[18] de Jenifer, single qu'il a écrit et composé.
+Da Silva apparaît également dans le clip, Les Jours Électriques de Jenifer, single qu'il a écrit et composé.
 En 2016, Da Silva apparaît de nouveau dans un clip de Jenifer, cette fois-ci dans celui de Paradis Secret, titre qu'il a, avec Jenifer, écrit et composé.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Da_Silva</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Livre-CD audio pour enfants</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Da Silva a réalisé plusieurs livres CD audio pour enfants dont il est l'auteur, le compositeur et l'interprète.
 2006 : Le mystère des couleurs chanté par Da Silva, conté et illustré par Françoiz Breut (Actes Sud Junior)Le contenu de cet album n'est pas renseigné.
@@ -920,73 +1301,77 @@
 Récit 7
 Au revoir avec Marie…
 2009 : Billie et les rois de la nuit conté par Coralie Clément, chanté par Da Silva et Les Churchfiters, illustrations de Cécile Gambini (Actes Sud Junior)Le contenu de cet album n'est pas renseigné.
-2013 : Les Dinosaures du Rock Chant Da Silva, illustrations Jeff Pourquié[62] (Actes Sud Junior)
+2013 : Les Dinosaures du Rock Chant Da Silva, illustrations Jeff Pourquié (Actes Sud Junior)
 Les Lunettes noires
 Grand Daddy
 Tête Brûlée
 L'Astronaute
 Les Dinosaures du Rock
-2015 : Les Fleurs Imaginaires[63],[64] Musique Da Silva, illustrations Vanessa Da Silva (Actes Sud)Le contenu de cet album n'est pas renseigné.
+2015 : Les Fleurs Imaginaires, Musique Da Silva, illustrations Vanessa Da Silva (Actes Sud)Le contenu de cet album n'est pas renseigné.
 2019 : Le Petit Nuage, par  Écrit et chanté par Da Silva, illustré par Sophie Bouxom  (Actes Sud Junior)Le contenu de cet album n'est pas renseigné.</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Da_Silva</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Spectacle pour enfants</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 2019 : Le mystère des couleurs, par Da SilvaLe contenu de cet album n'est pas renseigné.</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Da_Silva</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Da_Silva</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Da_Silva</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>B.O. Films</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Avec son acolyte et ami Fred Fortuny, Da Silva réalise également des bandes originales de films.
 2016 : C'est quoi cette famille ?! de Gabriel Julien-Laferrière
